--- a/Multiknapsack/results/fixed_recourse/singlecut/M20_N50_T0_a25_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M20_N50_T0_a25_reformulation.xlsx
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-112.68113442290269</v>
+        <v>-71.65924151606299</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0.0005680745486136919</v>
       </c>
       <c r="D2">
-        <v>3.003344781</v>
+        <v>25.557223755</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-110.48340379129283</v>
+        <v>-69.45256735952894</v>
       </c>
       <c r="C3">
-        <v>1.2862433838510229e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.806084469</v>
+        <v>53.479246961</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-114.51161653481327</v>
+        <v>-71.24685956643927</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0.05095443095246155</v>
       </c>
       <c r="D4">
-        <v>0.79197739</v>
+        <v>8.61043671</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-115.20278425765078</v>
+        <v>-71.65440618645333</v>
       </c>
       <c r="C5">
-        <v>1.233551324888739e-14</v>
+        <v>0.0942196409173878</v>
       </c>
       <c r="D5">
-        <v>0.81268158</v>
+        <v>5.525219539</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-112.7667432657874</v>
+        <v>-70.22823688201865</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0.05353691840979169</v>
       </c>
       <c r="D6">
-        <v>0.657737411</v>
+        <v>7.38619507</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-115.6886549737545</v>
+        <v>-71.84370853874832</v>
       </c>
       <c r="C7">
         <v>0.0</v>
       </c>
       <c r="D7">
-        <v>0.774678347</v>
+        <v>129.531268755</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-107.27603826729671</v>
+        <v>-67.12860480761344</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>5.50528395181048e-7</v>
       </c>
       <c r="D8">
-        <v>0.763638029</v>
+        <v>17.921225371</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-113.66017870121229</v>
+        <v>-71.56787798834289</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>0.0958882217621773</v>
       </c>
       <c r="D9">
-        <v>0.78695692</v>
+        <v>4.964546475</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-113.61718064292609</v>
+        <v>-70.884938041055</v>
       </c>
       <c r="C10">
-        <v>0.0</v>
+        <v>0.05531266370132536</v>
       </c>
       <c r="D10">
-        <v>0.756770269</v>
+        <v>6.314387318</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-109.19039307687441</v>
+        <v>-68.19423200083996</v>
       </c>
       <c r="C11">
         <v>0.0</v>
       </c>
       <c r="D11">
-        <v>0.720227339</v>
+        <v>36.246093994</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
